--- a/data/total/2612月.xlsx
+++ b/data/total/2612月.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEJ Pro\TejPro\DataExport\#1230\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\#tmp\python-\python-webstorm-TEJ-Banking-and-Finance\data\total\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BCD63C-4D5F-4BC5-95DC-88B055C2577F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312C41CB-03E4-4DF2-B851-1651A9179812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>最低價(元)</t>
   </si>
   <si>
-    <t>收盤價(元)</t>
-  </si>
-  <si>
     <t>成交量(百萬股)_月</t>
   </si>
   <si>
@@ -344,6 +341,10 @@
   </si>
   <si>
     <t>2021/05/31</t>
+  </si>
+  <si>
+    <t>收盤價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -353,7 +354,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,###"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +374,13 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -405,6 +413,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,35 +704,35 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.375" customWidth="1"/>
-    <col min="8" max="9" width="13.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="13" width="15" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
-    <col min="18" max="18" width="12.25" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.875" customWidth="1"/>
-    <col min="21" max="22" width="16.375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.875" customWidth="1"/>
-    <col min="24" max="24" width="12.75" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.375" customWidth="1"/>
-    <col min="28" max="28" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
+    <col min="21" max="22" width="16.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -734,82 +745,82 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="B2" s="3">
         <v>38.15</v>
@@ -866,7 +877,7 @@
         <v>8.9</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U2" s="3">
         <v>0.69</v>
@@ -875,7 +886,7 @@
         <v>1.88</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X2" s="3">
         <v>6.45</v>
@@ -887,15 +898,15 @@
         <v>28.958100000000002</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="B3" s="3">
         <v>32.1</v>
@@ -952,7 +963,7 @@
         <v>9.09</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" s="3">
         <v>0.66</v>
@@ -961,7 +972,7 @@
         <v>1.75</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" s="3">
         <v>7.25</v>
@@ -973,15 +984,15 @@
         <v>19.470400000000001</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B4" s="3">
         <v>32.5</v>
@@ -1038,7 +1049,7 @@
         <v>7.89</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U4" s="3">
         <v>0.57999999999999996</v>
@@ -1047,7 +1058,7 @@
         <v>1.52</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X4" s="3">
         <v>8.35</v>
@@ -1059,15 +1070,15 @@
         <v>16.055</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="B5" s="3">
         <v>38.049999999999997</v>
@@ -1124,7 +1135,7 @@
         <v>15.36</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U5" s="3">
         <v>0.61</v>
@@ -1133,7 +1144,7 @@
         <v>1.71</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X5" s="3">
         <v>8.1999999999999993</v>
@@ -1145,15 +1156,15 @@
         <v>23.901800000000001</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="B6" s="3">
         <v>40.799999999999997</v>
@@ -1210,7 +1221,7 @@
         <v>18.18</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U6" s="3">
         <v>0.72</v>
@@ -1219,7 +1230,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X6" s="3">
         <v>6.93</v>
@@ -1231,15 +1242,15 @@
         <v>10.2941</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="B7" s="3">
         <v>42.2</v>
@@ -1296,7 +1307,7 @@
         <v>19.16</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U7" s="3">
         <v>0.76</v>
@@ -1305,7 +1316,7 @@
         <v>2.14</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X7" s="3">
         <v>6.57</v>
@@ -1317,15 +1328,15 @@
         <v>16.547599999999999</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="B8" s="3">
         <v>54.5</v>
@@ -1382,7 +1393,7 @@
         <v>19.73</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U8" s="3">
         <v>0.78</v>
@@ -1391,7 +1402,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X8" s="3">
         <v>6.38</v>
@@ -1403,15 +1414,15 @@
         <v>28.650600000000001</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="B9" s="3">
         <v>52.3</v>
@@ -1468,7 +1479,7 @@
         <v>65.040000000000006</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U9" s="3">
         <v>1.03</v>
@@ -1477,7 +1488,7 @@
         <v>3.2</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X9" s="3">
         <v>4.95</v>
@@ -1489,15 +1500,15 @@
         <v>17.624500000000001</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B10" s="3">
         <v>51</v>
@@ -1554,7 +1565,7 @@
         <v>62.76</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U10" s="3">
         <v>1</v>
@@ -1563,7 +1574,7 @@
         <v>3.09</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X10" s="3">
         <v>5.13</v>
@@ -1575,15 +1586,15 @@
         <v>15.7895</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="B11" s="3">
         <v>56</v>
@@ -1640,7 +1651,7 @@
         <v>61.68</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U11" s="3">
         <v>0.98</v>
@@ -1649,7 +1660,7 @@
         <v>3.04</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X11" s="3">
         <v>5.22</v>
@@ -1661,15 +1672,15 @@
         <v>18.263999999999999</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="B12" s="3">
         <v>48.6</v>
@@ -1726,7 +1737,7 @@
         <v>64.540000000000006</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U12" s="3">
         <v>1.06</v>
@@ -1735,7 +1746,7 @@
         <v>3.27</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X12" s="3">
         <v>2.89</v>
@@ -1747,15 +1758,15 @@
         <v>16.5975</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB12" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="B13" s="3">
         <v>58.9</v>
@@ -1812,7 +1823,7 @@
         <v>56.26</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U13" s="3">
         <v>0.92</v>
@@ -1821,7 +1832,7 @@
         <v>2.85</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X13" s="3">
         <v>3.32</v>
@@ -1833,15 +1844,15 @@
         <v>19.691800000000001</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="B14" s="3">
         <v>57</v>
@@ -1898,7 +1909,7 @@
         <v>68.16</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U14" s="3">
         <v>1.1200000000000001</v>
@@ -1907,7 +1918,7 @@
         <v>3.46</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X14" s="3">
         <v>2.74</v>
@@ -1919,15 +1930,15 @@
         <v>15.1675</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="B15" s="3">
         <v>56.5</v>
@@ -1984,7 +1995,7 @@
         <v>123.83</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U15" s="3">
         <v>1</v>
@@ -1993,7 +2004,7 @@
         <v>3.52</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X15" s="3">
         <v>2.82</v>
@@ -2005,15 +2016,15 @@
         <v>14.5907</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB15" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="B16" s="3">
         <v>75</v>
@@ -2070,7 +2081,7 @@
         <v>122.74</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U16" s="3">
         <v>1</v>
@@ -2079,7 +2090,7 @@
         <v>3.49</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X16" s="3">
         <v>2.85</v>
@@ -2091,15 +2102,15 @@
         <v>28.2667</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB16" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="B17" s="3">
         <v>76</v>
@@ -2135,7 +2146,7 @@
         <v>75</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N17" s="3">
         <v>-1.9801</v>
@@ -2156,7 +2167,7 @@
         <v>149.13999999999999</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U17" s="3">
         <v>1.48</v>
@@ -2165,7 +2176,7 @@
         <v>4.76</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X17" s="3">
         <v>2.13</v>
@@ -2177,15 +2188,15 @@
         <v>13.4641</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB17" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="B18" s="3">
         <v>59.5</v>
@@ -2242,7 +2253,7 @@
         <v>152.13</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U18" s="3">
         <v>1.51</v>
@@ -2251,7 +2262,7 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X18" s="3">
         <v>2.09</v>
@@ -2263,15 +2274,15 @@
         <v>53.7288</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB18" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="B19" s="3">
         <v>90</v>
@@ -2328,7 +2339,7 @@
         <v>117.33</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U19" s="3">
         <v>1.1599999999999999</v>
@@ -2337,7 +2348,7 @@
         <v>3.74</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X19" s="3">
         <v>2.71</v>
@@ -2349,15 +2360,15 @@
         <v>40.2074</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB19" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="B20" s="3">
         <v>44.7</v>
@@ -2414,7 +2425,7 @@
         <v>172.61</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>1.71</v>
@@ -2423,7 +2434,7 @@
         <v>5.51</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X20" s="3">
         <v>1.84</v>
@@ -2435,15 +2446,15 @@
         <v>103.3445</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="B21" s="3">
         <v>53.9</v>
@@ -2500,7 +2511,7 @@
         <v>61.91</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U21" s="3">
         <v>0.9</v>
@@ -2509,7 +2520,7 @@
         <v>2.72</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X21" s="3">
         <v>3.57</v>
@@ -2521,17 +2532,18 @@
         <v>42.4861</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AB21" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:AB21 A1:D1 F1:AB1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>